--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adam2-Itga6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adam2-Itga6.xlsx
@@ -543,10 +543,10 @@
         <v>0.040137</v>
       </c>
       <c r="I2">
-        <v>0.4159662559202413</v>
+        <v>0.2594103048008066</v>
       </c>
       <c r="J2">
-        <v>0.4159662559202413</v>
+        <v>0.2594103048008066</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>192.8285726666667</v>
+        <v>227.11144</v>
       </c>
       <c r="N2">
-        <v>578.485718</v>
+        <v>681.33432</v>
       </c>
       <c r="O2">
-        <v>0.7801188850698786</v>
+        <v>0.8625743548356182</v>
       </c>
       <c r="P2">
-        <v>0.7801188850698786</v>
+        <v>0.8625743548356182</v>
       </c>
       <c r="Q2">
-        <v>2.579853473707333</v>
+        <v>3.03852395576</v>
       </c>
       <c r="R2">
-        <v>23.218681263366</v>
+        <v>27.34671560184</v>
       </c>
       <c r="S2">
-        <v>0.3245031317951904</v>
+        <v>0.2237606763012668</v>
       </c>
       <c r="T2">
-        <v>0.3245031317951904</v>
+        <v>0.2237606763012668</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>0.040137</v>
       </c>
       <c r="I3">
-        <v>0.4159662559202413</v>
+        <v>0.2594103048008066</v>
       </c>
       <c r="J3">
-        <v>0.4159662559202413</v>
+        <v>0.2594103048008066</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>1.262762</v>
       </c>
       <c r="O3">
-        <v>0.001702901995496819</v>
+        <v>0.001598666154760757</v>
       </c>
       <c r="P3">
-        <v>0.001702901995496819</v>
+        <v>0.001598666154760757</v>
       </c>
       <c r="Q3">
         <v>0.005631497599333334</v>
@@ -635,10 +635,10 @@
         <v>0.050683478394</v>
       </c>
       <c r="S3">
-        <v>0.0007083497672659194</v>
+        <v>0.0004147104744812214</v>
       </c>
       <c r="T3">
-        <v>0.0007083497672659192</v>
+        <v>0.0004147104744812213</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>0.040137</v>
       </c>
       <c r="I4">
-        <v>0.4159662559202413</v>
+        <v>0.2594103048008066</v>
       </c>
       <c r="J4">
-        <v>0.4159662559202413</v>
+        <v>0.2594103048008066</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.223696</v>
+        <v>3.233093</v>
       </c>
       <c r="N4">
-        <v>24.671088</v>
+        <v>9.699279000000001</v>
       </c>
       <c r="O4">
-        <v>0.0332702797409786</v>
+        <v>0.01227935989749593</v>
       </c>
       <c r="P4">
-        <v>0.0332702797409786</v>
+        <v>0.01227935989749593</v>
       </c>
       <c r="Q4">
-        <v>0.110024828784</v>
+        <v>0.04325555124700001</v>
       </c>
       <c r="R4">
-        <v>0.9902234590560001</v>
+        <v>0.389299961223</v>
       </c>
       <c r="S4">
-        <v>0.01383931369727393</v>
+        <v>0.003185392493768221</v>
       </c>
       <c r="T4">
-        <v>0.01383931369727392</v>
+        <v>0.00318539249376822</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>0.040137</v>
       </c>
       <c r="I5">
-        <v>0.4159662559202413</v>
+        <v>0.2594103048008066</v>
       </c>
       <c r="J5">
-        <v>0.4159662559202413</v>
+        <v>0.2594103048008066</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.70525533333333</v>
+        <v>32.52945966666667</v>
       </c>
       <c r="N5">
-        <v>137.115766</v>
+        <v>97.588379</v>
       </c>
       <c r="O5">
-        <v>0.184907933193646</v>
+        <v>0.1235476191121251</v>
       </c>
       <c r="P5">
-        <v>0.184907933193646</v>
+        <v>0.1235476191121251</v>
       </c>
       <c r="Q5">
-        <v>0.6114906111046667</v>
+        <v>0.4352116408803334</v>
       </c>
       <c r="R5">
-        <v>5.503415499942</v>
+        <v>3.916904767923</v>
       </c>
       <c r="S5">
-        <v>0.07691546066051104</v>
+        <v>0.03204952553129035</v>
       </c>
       <c r="T5">
-        <v>0.07691546066051104</v>
+        <v>0.03204952553129034</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.01878466666666666</v>
+        <v>0.03819566666666666</v>
       </c>
       <c r="H6">
-        <v>0.05635399999999999</v>
+        <v>0.114587</v>
       </c>
       <c r="I6">
-        <v>0.5840337440797587</v>
+        <v>0.7405896951991934</v>
       </c>
       <c r="J6">
-        <v>0.5840337440797587</v>
+        <v>0.7405896951991934</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>192.8285726666667</v>
+        <v>227.11144</v>
       </c>
       <c r="N6">
-        <v>578.485718</v>
+        <v>681.33432</v>
       </c>
       <c r="O6">
-        <v>0.7801188850698786</v>
+        <v>0.8625743548356182</v>
       </c>
       <c r="P6">
-        <v>0.7801188850698786</v>
+        <v>0.8625743548356182</v>
       </c>
       <c r="Q6">
-        <v>3.622220461352444</v>
+        <v>8.674672858426666</v>
       </c>
       <c r="R6">
-        <v>32.599984152172</v>
+        <v>78.07205572584</v>
       </c>
       <c r="S6">
-        <v>0.4556157532746882</v>
+        <v>0.6388136785343513</v>
       </c>
       <c r="T6">
-        <v>0.4556157532746882</v>
+        <v>0.6388136785343513</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.01878466666666666</v>
+        <v>0.03819566666666666</v>
       </c>
       <c r="H7">
-        <v>0.05635399999999999</v>
+        <v>0.114587</v>
       </c>
       <c r="I7">
-        <v>0.5840337440797587</v>
+        <v>0.7405896951991934</v>
       </c>
       <c r="J7">
-        <v>0.5840337440797587</v>
+        <v>0.7405896951991934</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>1.262762</v>
       </c>
       <c r="O7">
-        <v>0.001702901995496819</v>
+        <v>0.001598666154760757</v>
       </c>
       <c r="P7">
-        <v>0.001702901995496819</v>
+        <v>0.001598666154760757</v>
       </c>
       <c r="Q7">
-        <v>0.007906854416444445</v>
+        <v>0.01607734547711111</v>
       </c>
       <c r="R7">
-        <v>0.071161689748</v>
+        <v>0.144696109294</v>
       </c>
       <c r="S7">
-        <v>0.0009945522282308996</v>
+        <v>0.001183955680279535</v>
       </c>
       <c r="T7">
-        <v>0.0009945522282308996</v>
+        <v>0.001183955680279535</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.01878466666666666</v>
+        <v>0.03819566666666666</v>
       </c>
       <c r="H8">
-        <v>0.05635399999999999</v>
+        <v>0.114587</v>
       </c>
       <c r="I8">
-        <v>0.5840337440797587</v>
+        <v>0.7405896951991934</v>
       </c>
       <c r="J8">
-        <v>0.5840337440797587</v>
+        <v>0.7405896951991934</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.223696</v>
+        <v>3.233093</v>
       </c>
       <c r="N8">
-        <v>24.671088</v>
+        <v>9.699279000000001</v>
       </c>
       <c r="O8">
-        <v>0.0332702797409786</v>
+        <v>0.01227935989749593</v>
       </c>
       <c r="P8">
-        <v>0.0332702797409786</v>
+        <v>0.01227935989749593</v>
       </c>
       <c r="Q8">
-        <v>0.154479388128</v>
+        <v>0.1234901425303333</v>
       </c>
       <c r="R8">
-        <v>1.390314493152</v>
+        <v>1.111411282773</v>
       </c>
       <c r="S8">
-        <v>0.01943096604370468</v>
+        <v>0.009093967403727711</v>
       </c>
       <c r="T8">
-        <v>0.01943096604370468</v>
+        <v>0.009093967403727709</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.01878466666666666</v>
+        <v>0.03819566666666666</v>
       </c>
       <c r="H9">
-        <v>0.05635399999999999</v>
+        <v>0.114587</v>
       </c>
       <c r="I9">
-        <v>0.5840337440797587</v>
+        <v>0.7405896951991934</v>
       </c>
       <c r="J9">
-        <v>0.5840337440797587</v>
+        <v>0.7405896951991934</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.70525533333333</v>
+        <v>32.52945966666667</v>
       </c>
       <c r="N9">
-        <v>137.115766</v>
+        <v>97.588379</v>
       </c>
       <c r="O9">
-        <v>0.184907933193646</v>
+        <v>0.1235476191121251</v>
       </c>
       <c r="P9">
-        <v>0.184907933193646</v>
+        <v>0.1235476191121251</v>
       </c>
       <c r="Q9">
-        <v>0.8585579863515554</v>
+        <v>1.242484398274778</v>
       </c>
       <c r="R9">
-        <v>7.727021877164</v>
+        <v>11.182359584473</v>
       </c>
       <c r="S9">
-        <v>0.107992472533135</v>
+        <v>0.0914980935808348</v>
       </c>
       <c r="T9">
-        <v>0.107992472533135</v>
+        <v>0.0914980935808348</v>
       </c>
     </row>
   </sheetData>
